--- a/biology/Zoologie/Eleutherodactylus_probolaeus/Eleutherodactylus_probolaeus.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_probolaeus/Eleutherodactylus_probolaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus probolaeus est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus probolaeus est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de La Romana en République dominicaine[1]. Elle se rencontre du niveau de la mer jusqu'à 600 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de La Romana en République dominicaine. Elle se rencontre du niveau de la mer jusqu'à 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Schwartz, 1965 : Geographic variation in two species of Hispaniolan Eleutherodactylus with notes on Cuban members of the ricordi group. Studies on the Fauna of Curacao and Other Caribbean Islands, vol. 22, p. 98-123.</t>
         </is>
